--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N2">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O2">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P2">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q2">
-        <v>43.40399183084244</v>
+        <v>20.28147606622867</v>
       </c>
       <c r="R2">
-        <v>390.6359264775821</v>
+        <v>182.533284596058</v>
       </c>
       <c r="S2">
-        <v>0.0002095338747796769</v>
+        <v>0.0001072081469815272</v>
       </c>
       <c r="T2">
-        <v>0.0002391557953398129</v>
+        <v>0.0001200929852980228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>145.816244</v>
       </c>
       <c r="O3">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P3">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q3">
-        <v>746.8385439744661</v>
+        <v>638.2660369447507</v>
       </c>
       <c r="R3">
-        <v>6721.546895770196</v>
+        <v>5744.394332502756</v>
       </c>
       <c r="S3">
-        <v>0.003605382070931623</v>
+        <v>0.003373882595065661</v>
       </c>
       <c r="T3">
-        <v>0.00411507694201809</v>
+        <v>0.003779373529852085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N4">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O4">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P4">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q4">
-        <v>3.198084764853445</v>
+        <v>4.260073744556333</v>
       </c>
       <c r="R4">
-        <v>28.782762883681</v>
+        <v>38.340663701007</v>
       </c>
       <c r="S4">
-        <v>1.543883556298669E-05</v>
+        <v>2.251880537033645E-05</v>
       </c>
       <c r="T4">
-        <v>1.762143234390658E-05</v>
+        <v>2.522523370108088E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N5">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O5">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P5">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q5">
-        <v>427.7108773722685</v>
+        <v>305.216096773866</v>
       </c>
       <c r="R5">
-        <v>2566.265264233611</v>
+        <v>1831.296580643196</v>
       </c>
       <c r="S5">
-        <v>0.002064785141663943</v>
+        <v>0.001613376267940701</v>
       </c>
       <c r="T5">
-        <v>0.001571123311301337</v>
+        <v>0.001204853535738393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N6">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O6">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P6">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q6">
-        <v>2.438386684082</v>
+        <v>3.893343648921</v>
       </c>
       <c r="R6">
-        <v>21.945480156738</v>
+        <v>35.040092840289</v>
       </c>
       <c r="S6">
-        <v>1.177137375101549E-05</v>
+        <v>2.058026530219568E-05</v>
       </c>
       <c r="T6">
-        <v>1.343549941328798E-05</v>
+        <v>2.305370970353458E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N7">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O7">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P7">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q7">
-        <v>7113.004949601119</v>
+        <v>3889.089924699041</v>
       </c>
       <c r="R7">
-        <v>64017.04454641007</v>
+        <v>35001.80932229137</v>
       </c>
       <c r="S7">
-        <v>0.03433821235211523</v>
+        <v>0.02055778006048459</v>
       </c>
       <c r="T7">
-        <v>0.03919262455415645</v>
+        <v>0.02302852206734964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>145.816244</v>
       </c>
       <c r="O8">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P8">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q8">
         <v>122391.1911269974</v>
@@ -948,10 +948,10 @@
         <v>1101520.720142976</v>
       </c>
       <c r="S8">
-        <v>0.5908465888503051</v>
+        <v>0.6469614324292731</v>
       </c>
       <c r="T8">
-        <v>0.6743749001391327</v>
+        <v>0.7247166561558427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N9">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O9">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P9">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q9">
-        <v>524.0990932424327</v>
+        <v>816.8936927631486</v>
       </c>
       <c r="R9">
-        <v>4716.891839181894</v>
+        <v>7352.043234868338</v>
       </c>
       <c r="S9">
-        <v>0.002530101705934972</v>
+        <v>0.004318110713246482</v>
       </c>
       <c r="T9">
-        <v>0.002887783593033543</v>
+        <v>0.004837083943727702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N10">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O10">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P10">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q10">
-        <v>70092.85227966862</v>
+        <v>58526.94561988724</v>
       </c>
       <c r="R10">
-        <v>420557.1136780117</v>
+        <v>351161.6737193235</v>
       </c>
       <c r="S10">
-        <v>0.3383750275725136</v>
+        <v>0.3093741978102224</v>
       </c>
       <c r="T10">
-        <v>0.2574741957669197</v>
+        <v>0.2310376094558841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N11">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O11">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P11">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q11">
-        <v>399.600493441068</v>
+        <v>746.5710833356139</v>
       </c>
       <c r="R11">
-        <v>3596.404440969612</v>
+        <v>6719.139750020526</v>
       </c>
       <c r="S11">
-        <v>0.001929081548095773</v>
+        <v>0.003946384482719043</v>
       </c>
       <c r="T11">
-        <v>0.002201796880792229</v>
+        <v>0.00442068170197164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N12">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O12">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P12">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q12">
-        <v>4.296859703519778</v>
+        <v>1.875910772926667</v>
       </c>
       <c r="R12">
-        <v>38.67173733167801</v>
+        <v>16.88319695634</v>
       </c>
       <c r="S12">
-        <v>2.074319953270707E-05</v>
+        <v>9.916088809878677E-06</v>
       </c>
       <c r="T12">
-        <v>2.367567720185242E-05</v>
+        <v>1.110785645669113E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>145.816244</v>
       </c>
       <c r="O13">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P13">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q13">
-        <v>73.93468455956489</v>
+        <v>59.03565059998666</v>
       </c>
       <c r="R13">
-        <v>665.4121610360839</v>
+        <v>531.32085539988</v>
       </c>
       <c r="S13">
-        <v>0.0003569215706415843</v>
+        <v>0.0003120632189691678</v>
       </c>
       <c r="T13">
-        <v>0.0004073797718410853</v>
+        <v>0.0003495686160322822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N14">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O14">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P14">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q14">
-        <v>0.3166004087387778</v>
+        <v>0.3940304051233333</v>
       </c>
       <c r="R14">
-        <v>2.849403678649</v>
+        <v>3.54627364611</v>
       </c>
       <c r="S14">
-        <v>1.52839652763749E-06</v>
+        <v>2.082849860124019E-06</v>
       </c>
       <c r="T14">
-        <v>1.744466795863431E-06</v>
+        <v>2.33317769845386E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N15">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O15">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P15">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q15">
-        <v>42.3420417389365</v>
+        <v>28.23059634018</v>
       </c>
       <c r="R15">
-        <v>254.052250433619</v>
+        <v>169.38357804108</v>
       </c>
       <c r="S15">
-        <v>0.0002044072836945323</v>
+        <v>0.0001492273004159586</v>
       </c>
       <c r="T15">
-        <v>0.0001555363034787542</v>
+        <v>0.0001114414808917169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H16">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I16">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J16">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N16">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O16">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P16">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q16">
-        <v>0.241392670178</v>
+        <v>0.36011014533</v>
       </c>
       <c r="R16">
-        <v>2.172534031602</v>
+        <v>3.24099130797</v>
       </c>
       <c r="S16">
-        <v>1.165329256418007E-06</v>
+        <v>1.903546924494468E-06</v>
       </c>
       <c r="T16">
-        <v>1.330072502331411E-06</v>
+        <v>2.132325194061985E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N17">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O17">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P17">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q17">
-        <v>183.2000755006726</v>
+        <v>34.55255851146367</v>
       </c>
       <c r="R17">
-        <v>1099.200453004036</v>
+        <v>207.315351068782</v>
       </c>
       <c r="S17">
-        <v>0.0008844030251684854</v>
+        <v>0.0001826452748995418</v>
       </c>
       <c r="T17">
-        <v>0.0006729543822210348</v>
+        <v>0.0001363976957027559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>145.816244</v>
       </c>
       <c r="O18">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P18">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q18">
-        <v>3152.2648464262</v>
+        <v>1087.382620249021</v>
       </c>
       <c r="R18">
-        <v>18913.5890785572</v>
+        <v>6524.295721494123</v>
       </c>
       <c r="S18">
-        <v>0.01521763874110067</v>
+        <v>0.00574791871144576</v>
       </c>
       <c r="T18">
-        <v>0.01157930986942219</v>
+        <v>0.004292489185713518</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N19">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O19">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P19">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q19">
-        <v>13.49851351603966</v>
+        <v>7.257679216308833</v>
       </c>
       <c r="R19">
-        <v>80.99108109623798</v>
+        <v>43.546075297853</v>
       </c>
       <c r="S19">
-        <v>6.516441740669118E-05</v>
+        <v>3.83641869864897E-05</v>
       </c>
       <c r="T19">
-        <v>4.958449825559929E-05</v>
+        <v>2.864999768181782E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N20">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O20">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P20">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q20">
-        <v>1805.287065126094</v>
+        <v>519.981731506221</v>
       </c>
       <c r="R20">
-        <v>7221.148260504377</v>
+        <v>2079.926926024884</v>
       </c>
       <c r="S20">
-        <v>0.008715069234178302</v>
+        <v>0.002748630213944479</v>
       </c>
       <c r="T20">
-        <v>0.004420943744422185</v>
+        <v>0.001368433347927946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N21">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O21">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P21">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q21">
-        <v>10.291970986554</v>
+        <v>6.6328990944885</v>
       </c>
       <c r="R21">
-        <v>61.75182591932398</v>
+        <v>39.797394566931</v>
       </c>
       <c r="S21">
-        <v>4.968475176977325E-05</v>
+        <v>3.506159111464467E-05</v>
       </c>
       <c r="T21">
-        <v>3.78058085301817E-05</v>
+        <v>2.618365155266193E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N22">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O22">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P22">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q22">
-        <v>4.095413847062001</v>
+        <v>1.881920862027555</v>
       </c>
       <c r="R22">
-        <v>36.858724623558</v>
+        <v>16.937287758248</v>
       </c>
       <c r="S22">
-        <v>1.977071453578762E-05</v>
+        <v>9.947858219244944E-06</v>
       </c>
       <c r="T22">
-        <v>2.256571145937351E-05</v>
+        <v>1.114344408057393E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>145.816244</v>
       </c>
       <c r="O23">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P23">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q23">
-        <v>70.468470421636</v>
+        <v>59.22479047025955</v>
       </c>
       <c r="R23">
-        <v>634.216233794724</v>
+        <v>533.023114232336</v>
       </c>
       <c r="S23">
-        <v>0.0003401883337087489</v>
+        <v>0.0003130630147900473</v>
       </c>
       <c r="T23">
-        <v>0.0003882809478848649</v>
+        <v>0.0003506885725672887</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N24">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O24">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P24">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q24">
-        <v>0.301757513021</v>
+        <v>0.3952928094324444</v>
       </c>
       <c r="R24">
-        <v>2.715817617189</v>
+        <v>3.557635284892</v>
       </c>
       <c r="S24">
-        <v>1.456742070950245E-06</v>
+        <v>2.089522945765288E-06</v>
       </c>
       <c r="T24">
-        <v>1.662682508732296E-06</v>
+        <v>2.340652790584194E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N25">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O25">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P25">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q25">
-        <v>40.3569574097265</v>
+        <v>28.321042219496</v>
       </c>
       <c r="R25">
-        <v>242.141744458359</v>
+        <v>169.926253316976</v>
       </c>
       <c r="S25">
-        <v>0.0001948242385938689</v>
+        <v>0.0001497053985135487</v>
       </c>
       <c r="T25">
-        <v>0.0001482444331300693</v>
+        <v>0.0001117985198507977</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H26">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I26">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J26">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N26">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O26">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P26">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q26">
-        <v>0.230075672058</v>
+        <v>0.361263875076</v>
       </c>
       <c r="R26">
-        <v>2.070681048522</v>
+        <v>3.251374875684</v>
       </c>
       <c r="S26">
-        <v>1.110696160084391E-06</v>
+        <v>1.909645554977882E-06</v>
       </c>
       <c r="T26">
-        <v>1.267715894745734E-06</v>
+        <v>2.139156789995723E-06</v>
       </c>
     </row>
   </sheetData>
